--- a/experiments/category-specific comparison/voc2007_2012.xlsx
+++ b/experiments/category-specific comparison/voc2007_2012.xlsx
@@ -102,9 +102,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -124,9 +124,79 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -139,7 +209,22 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -147,30 +232,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,81 +253,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -269,31 +269,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,13 +371,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,19 +383,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,109 +443,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,15 +476,17 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -501,6 +503,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,28 +552,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,145 +565,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -719,6 +719,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1041,13 +1044,14 @@
   <sheetPr/>
   <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="22" width="11.0083333333333" style="1" customWidth="1"/>
+    <col min="1" max="21" width="11.0083333333333" style="1" customWidth="1"/>
+    <col min="22" max="22" width="12.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1119,7 +1123,7 @@
       <c r="U2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1128,67 +1132,67 @@
         <v>23</v>
       </c>
       <c r="B3" s="1">
-        <v>0.897114737843763</v>
+        <v>88</v>
       </c>
       <c r="C3" s="1">
-        <v>0.879288906548989</v>
+        <v>88.8</v>
       </c>
       <c r="D3" s="1">
-        <v>0.875027372346865</v>
+        <v>87.5</v>
       </c>
       <c r="E3" s="1">
-        <v>0.895151220582553</v>
+        <v>85.9</v>
       </c>
       <c r="F3" s="1">
-        <v>0.88374940020037</v>
+        <v>90.3</v>
       </c>
       <c r="G3" s="1">
-        <v>0.891985377456766</v>
+        <v>90.1</v>
       </c>
       <c r="H3" s="1">
-        <v>0.89427350443308</v>
+        <v>86.1</v>
       </c>
       <c r="I3" s="1">
-        <v>0.889271238492873</v>
+        <v>87.1</v>
       </c>
       <c r="J3" s="1">
-        <v>0.87832624545368</v>
+        <v>91</v>
       </c>
       <c r="K3" s="1">
-        <v>0.857196240291595</v>
+        <v>89.9</v>
       </c>
       <c r="L3" s="1">
-        <v>0.880027223771403</v>
+        <v>89.7</v>
       </c>
       <c r="M3" s="1">
-        <v>0.888376403035603</v>
+        <v>87.9</v>
       </c>
       <c r="N3" s="1">
-        <v>0.87506037179209</v>
+        <v>87.5</v>
       </c>
       <c r="O3" s="1">
-        <v>0.859203033761803</v>
+        <v>89.5</v>
       </c>
       <c r="P3" s="1">
-        <v>0.903254471480368</v>
+        <v>88.4</v>
       </c>
       <c r="Q3" s="1">
-        <v>0.900672819558113</v>
+        <v>89.2</v>
       </c>
       <c r="R3" s="1">
-        <v>0.86121142015594</v>
+        <v>89.4</v>
       </c>
       <c r="S3" s="1">
-        <v>0.871098724480965</v>
+        <v>88.9</v>
       </c>
       <c r="T3" s="1">
-        <v>0.910229643840463</v>
+        <v>87.8</v>
       </c>
       <c r="U3" s="1">
-        <v>0.899301651013645</v>
-      </c>
-      <c r="V3" s="1">
-        <v>0.884491000327046</v>
+        <v>85.7</v>
+      </c>
+      <c r="V3">
+        <v>88.5</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -1196,67 +1200,67 @@
         <v>24</v>
       </c>
       <c r="B4" s="1">
-        <v>0.952279940318136</v>
+        <v>93.5</v>
       </c>
       <c r="C4" s="1">
-        <v>0.934454109023361</v>
+        <v>94.4</v>
       </c>
       <c r="D4" s="1">
-        <v>0.930192574821237</v>
+        <v>93</v>
       </c>
       <c r="E4" s="1">
-        <v>0.950316423056926</v>
+        <v>91.4</v>
       </c>
       <c r="F4" s="1">
-        <v>0.938914602674742</v>
+        <v>95.8</v>
       </c>
       <c r="G4" s="1">
-        <v>0.947150579931138</v>
+        <v>95.6</v>
       </c>
       <c r="H4" s="1">
-        <v>0.949438706907452</v>
+        <v>91.6</v>
       </c>
       <c r="I4" s="1">
-        <v>0.944436440967246</v>
+        <v>92.6</v>
       </c>
       <c r="J4" s="1">
-        <v>0.933491447928053</v>
+        <v>96.5</v>
       </c>
       <c r="K4" s="1">
-        <v>0.912361442765968</v>
+        <v>95.4</v>
       </c>
       <c r="L4" s="1">
-        <v>0.935192426245776</v>
+        <v>95.2</v>
       </c>
       <c r="M4" s="1">
-        <v>0.943541605509975</v>
+        <v>93.4</v>
       </c>
       <c r="N4" s="1">
-        <v>0.930225574266463</v>
+        <v>93</v>
       </c>
       <c r="O4" s="1">
-        <v>0.914368236236176</v>
+        <v>95</v>
       </c>
       <c r="P4" s="1">
-        <v>0.958419673954741</v>
+        <v>93.9</v>
       </c>
       <c r="Q4" s="1">
-        <v>0.955838022032485</v>
+        <v>94.7</v>
       </c>
       <c r="R4" s="1">
-        <v>0.916376622630312</v>
+        <v>94.9</v>
       </c>
       <c r="S4" s="1">
-        <v>0.926263926955337</v>
+        <v>94.4</v>
       </c>
       <c r="T4" s="1">
-        <v>0.965394846314835</v>
+        <v>93.3</v>
       </c>
       <c r="U4" s="1">
-        <v>0.954466853488017</v>
-      </c>
-      <c r="V4" s="1">
-        <v>0.939656202801419</v>
+        <v>91.2</v>
+      </c>
+      <c r="V4">
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -1264,67 +1268,67 @@
         <v>25</v>
       </c>
       <c r="B5" s="1">
-        <v>0.956660164293835</v>
+        <v>95.7</v>
       </c>
       <c r="C5" s="1">
-        <v>0.93883433299906</v>
+        <v>93.9</v>
       </c>
       <c r="D5" s="1">
-        <v>0.934572798796937</v>
+        <v>93.5</v>
       </c>
       <c r="E5" s="1">
-        <v>0.954696647032625</v>
+        <v>95.5</v>
       </c>
       <c r="F5" s="1">
-        <v>0.943294826650442</v>
+        <v>94.3</v>
       </c>
       <c r="G5" s="1">
-        <v>0.951530803906837</v>
+        <v>95.2</v>
       </c>
       <c r="H5" s="1">
-        <v>0.953818930883151</v>
+        <v>95.4</v>
       </c>
       <c r="I5" s="1">
-        <v>0.948816664942945</v>
+        <v>95.9</v>
       </c>
       <c r="J5" s="1">
-        <v>0.937871671903752</v>
+        <v>93.8</v>
       </c>
       <c r="K5" s="1">
-        <v>0.916741666741667</v>
+        <v>91.7</v>
       </c>
       <c r="L5" s="1">
-        <v>0.939572650221475</v>
+        <v>94</v>
       </c>
       <c r="M5" s="1">
-        <v>0.947921829485675</v>
+        <v>94.8</v>
       </c>
       <c r="N5" s="1">
-        <v>0.934605798242162</v>
+        <v>95.1</v>
       </c>
       <c r="O5" s="1">
-        <v>0.918748460211875</v>
+        <v>93.5</v>
       </c>
       <c r="P5" s="1">
-        <v>0.96279989793044</v>
+        <v>91.2</v>
       </c>
       <c r="Q5" s="1">
-        <v>0.960218246008184</v>
+        <v>96.3</v>
       </c>
       <c r="R5" s="1">
-        <v>0.920756846606012</v>
+        <v>96</v>
       </c>
       <c r="S5" s="1">
-        <v>0.930644150931036</v>
+        <v>92.1</v>
       </c>
       <c r="T5" s="1">
-        <v>0.969775070290534</v>
+        <v>97</v>
       </c>
       <c r="U5" s="1">
-        <v>0.958847077463717</v>
-      </c>
-      <c r="V5" s="1">
-        <v>0.944036426777118</v>
+        <v>95.9</v>
+      </c>
+      <c r="V5">
+        <v>94.4</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -1396,7 +1400,7 @@
       <c r="U9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V9" s="2" t="s">
+      <c r="V9" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1405,67 +1409,67 @@
         <v>23</v>
       </c>
       <c r="B10" s="1">
-        <v>0.883644374467959</v>
+        <v>86.4</v>
       </c>
       <c r="C10" s="1">
-        <v>0.867025818125442</v>
+        <v>87.8</v>
       </c>
       <c r="D10" s="1">
-        <v>0.862256768523357</v>
+        <v>86.5</v>
       </c>
       <c r="E10" s="1">
-        <v>0.874296617607874</v>
+        <v>84.9</v>
       </c>
       <c r="F10" s="1">
-        <v>0.868380909595851</v>
+        <v>86.3</v>
       </c>
       <c r="G10" s="1">
-        <v>0.877123957203314</v>
+        <v>89.8</v>
       </c>
       <c r="H10" s="1">
-        <v>0.881704157941857</v>
+        <v>85.9</v>
       </c>
       <c r="I10" s="1">
-        <v>0.877036461883982</v>
+        <v>86.1</v>
       </c>
       <c r="J10" s="1">
-        <v>0.85601672914046</v>
+        <v>87.3</v>
       </c>
       <c r="K10" s="1">
-        <v>0.844027603250587</v>
+        <v>88.2</v>
       </c>
       <c r="L10" s="1">
-        <v>0.865919885257378</v>
+        <v>89.7</v>
       </c>
       <c r="M10" s="1">
-        <v>0.873352981959832</v>
+        <v>87.1</v>
       </c>
       <c r="N10" s="1">
-        <v>0.859152269998714</v>
+        <v>86.1</v>
       </c>
       <c r="O10" s="1">
-        <v>0.850518369827168</v>
+        <v>88.1</v>
       </c>
       <c r="P10" s="1">
-        <v>0.891822992957367</v>
+        <v>86.5</v>
       </c>
       <c r="Q10" s="1">
-        <v>0.883944596508389</v>
+        <v>88.2</v>
       </c>
       <c r="R10" s="1">
-        <v>0.848565089331913</v>
+        <v>88.9</v>
       </c>
       <c r="S10" s="1">
-        <v>0.855435337577113</v>
+        <v>86.2</v>
       </c>
       <c r="T10" s="1">
-        <v>0.893546923589222</v>
+        <v>84.9</v>
       </c>
       <c r="U10" s="1">
-        <v>0.880956769883225</v>
-      </c>
-      <c r="V10" s="1">
-        <v>0.86973643073155</v>
+        <v>84.2</v>
+      </c>
+      <c r="V10">
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1473,67 +1477,67 @@
         <v>24</v>
       </c>
       <c r="B11" s="1">
-        <v>0.944076064932275</v>
+        <v>92.5</v>
       </c>
       <c r="C11" s="1">
-        <v>0.927457508589758</v>
+        <v>93.2</v>
       </c>
       <c r="D11" s="1">
-        <v>0.922688458987674</v>
+        <v>92.1</v>
       </c>
       <c r="E11" s="1">
-        <v>0.93472830807219</v>
+        <v>90.1</v>
       </c>
       <c r="F11" s="1">
-        <v>0.928812600060167</v>
+        <v>94.6</v>
       </c>
       <c r="G11" s="1">
-        <v>0.937555647667631</v>
+        <v>94.7</v>
       </c>
       <c r="H11" s="1">
-        <v>0.942135848406174</v>
+        <v>91.2</v>
       </c>
       <c r="I11" s="1">
-        <v>0.937468152348298</v>
+        <v>91.1</v>
       </c>
       <c r="J11" s="1">
-        <v>0.916448419604776</v>
+        <v>95.1</v>
       </c>
       <c r="K11" s="1">
-        <v>0.904459293714903</v>
+        <v>94.1</v>
       </c>
       <c r="L11" s="1">
-        <v>0.926351575721694</v>
+        <v>93.2</v>
       </c>
       <c r="M11" s="1">
-        <v>0.933784672424148</v>
+        <v>92.2</v>
       </c>
       <c r="N11" s="1">
-        <v>0.91958396046303</v>
+        <v>93.5</v>
       </c>
       <c r="O11" s="1">
-        <v>0.910950060291484</v>
+        <v>94.3</v>
       </c>
       <c r="P11" s="1">
-        <v>0.952254683421683</v>
+        <v>92.9</v>
       </c>
       <c r="Q11" s="1">
-        <v>0.944376286972706</v>
+        <v>94</v>
       </c>
       <c r="R11" s="1">
-        <v>0.908996779796229</v>
+        <v>93.8</v>
       </c>
       <c r="S11" s="1">
-        <v>0.915867028041429</v>
+        <v>93.6</v>
       </c>
       <c r="T11" s="1">
-        <v>0.953978614053538</v>
+        <v>93.1</v>
       </c>
       <c r="U11" s="1">
-        <v>0.941388460347541</v>
-      </c>
-      <c r="V11" s="1">
-        <v>0.930168121195867</v>
+        <v>90.9</v>
+      </c>
+      <c r="V11">
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1541,73 +1545,73 @@
         <v>25</v>
       </c>
       <c r="B12" s="1">
-        <v>0.94783568520413</v>
+        <v>94.6</v>
       </c>
       <c r="C12" s="1">
-        <v>0.931217128861614</v>
+        <v>92.8</v>
       </c>
       <c r="D12" s="1">
-        <v>0.926448079259529</v>
+        <v>92.4</v>
       </c>
       <c r="E12" s="1">
-        <v>0.938487928344046</v>
+        <v>94.4</v>
       </c>
       <c r="F12" s="1">
-        <v>0.932572220332022</v>
+        <v>93.2</v>
       </c>
       <c r="G12" s="1">
-        <v>0.941315267939486</v>
+        <v>94.1</v>
       </c>
       <c r="H12" s="1">
-        <v>0.945895468678029</v>
+        <v>94.3</v>
       </c>
       <c r="I12" s="1">
-        <v>0.941227772620153</v>
+        <v>94.8</v>
       </c>
       <c r="J12" s="1">
-        <v>0.920208039876631</v>
+        <v>92.7</v>
       </c>
       <c r="K12" s="1">
-        <v>0.908218913986759</v>
+        <v>90.6</v>
       </c>
       <c r="L12" s="1">
-        <v>0.930111195993549</v>
+        <v>92.9</v>
       </c>
       <c r="M12" s="1">
-        <v>0.937544292696004</v>
+        <v>93.7</v>
       </c>
       <c r="N12" s="1">
-        <v>0.923343580734885</v>
+        <v>94</v>
       </c>
       <c r="O12" s="1">
-        <v>0.914709680563339</v>
+        <v>92.4</v>
       </c>
       <c r="P12" s="1">
-        <v>0.956014303693538</v>
+        <v>90.1</v>
       </c>
       <c r="Q12" s="1">
-        <v>0.948135907244561</v>
+        <v>95.2</v>
       </c>
       <c r="R12" s="1">
-        <v>0.912756400068084</v>
+        <v>94.9</v>
       </c>
       <c r="S12" s="1">
-        <v>0.919626648313284</v>
+        <v>91</v>
       </c>
       <c r="T12" s="1">
-        <v>0.957738234325393</v>
+        <v>95.9</v>
       </c>
       <c r="U12" s="1">
-        <v>0.945148080619396</v>
-      </c>
-      <c r="V12" s="1">
-        <v>0.933927741467721</v>
+        <v>94.8</v>
+      </c>
+      <c r="V12">
+        <v>93.4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="A8:V8"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A8:U8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
